--- a/(UEL) cube_C3D8T_multiphysics/processing_input/depvar.xlsx
+++ b/(UEL) cube_C3D8T_multiphysics/processing_input/depvar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\nguyenb5\Abaqus-UEL-Multiphysics\(UEL) cube_C3D8T_multiphysics\processing_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC26352-CE26-424A-BA87-9BB7DD629B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DCA9E8-2359-4401-BE33-744437FB9220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="127">
   <si>
     <t>depvar_index</t>
   </si>
@@ -341,6 +341,66 @@
   </si>
   <si>
     <t>temp_grad_Z</t>
+  </si>
+  <si>
+    <t>CT_mol_void</t>
+  </si>
+  <si>
+    <t>vacancy/microvoid trap hydrogen concentration  (mol/m^3)</t>
+  </si>
+  <si>
+    <t>k_HEDE</t>
+  </si>
+  <si>
+    <t>theta_T_gb</t>
+  </si>
+  <si>
+    <t>theta_T_carb</t>
+  </si>
+  <si>
+    <t>theta_T_void</t>
+  </si>
+  <si>
+    <t>flux_hydro_X</t>
+  </si>
+  <si>
+    <t>flux_hydro_Y</t>
+  </si>
+  <si>
+    <t>flux_hydro_Z</t>
+  </si>
+  <si>
+    <t>mu_potential</t>
+  </si>
+  <si>
+    <t>NT_mol_dis</t>
+  </si>
+  <si>
+    <t>dislocation trap density (mol/m^3)</t>
+  </si>
+  <si>
+    <t>grain boundaryn trap site occupancy (-)</t>
+  </si>
+  <si>
+    <t>carbide trap site occupancy (-)</t>
+  </si>
+  <si>
+    <t>vacancy/microvoid trap site occupancy (-)</t>
+  </si>
+  <si>
+    <t>factor decreasing cohesive strength (-)</t>
+  </si>
+  <si>
+    <t>hydrogen flux in X direction (mol/(s*m^2))</t>
+  </si>
+  <si>
+    <t>hydrogen flux in Y direction (mol/(s*m^2))</t>
+  </si>
+  <si>
+    <t>hydrogen flux in Z direction (mol/(s*m^2))</t>
+  </si>
+  <si>
+    <t>hydrogen chemical potential (J/mol)</t>
   </si>
 </sst>
 </file>
@@ -752,8 +812,8 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1591,16 +1651,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F42" s="13">
         <v>0</v>
@@ -1611,36 +1671,36 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F43" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>92</v>
+      <c r="B44" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="11">
+        <v>48</v>
+      </c>
+      <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F44" s="13">
         <v>0</v>
@@ -1651,16 +1711,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="11">
+        <v>48</v>
+      </c>
+      <c r="D45" s="3">
         <v>1</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F45" s="13">
         <v>0</v>
@@ -1670,17 +1730,17 @@
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>106</v>
+      <c r="B46" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="11">
+        <v>48</v>
+      </c>
+      <c r="D46" s="3">
         <v>1</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F46" s="13">
         <v>0</v>
@@ -1691,16 +1751,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="F47" s="13">
         <v>0</v>
@@ -1711,16 +1771,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="F48" s="13">
         <v>0</v>
@@ -1731,16 +1791,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="F49" s="13">
         <v>0</v>
@@ -1751,7 +1811,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>48</v>
@@ -1760,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F50" s="13">
         <v>0</v>
@@ -1771,7 +1831,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1780,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="F51" s="13">
         <v>0</v>
@@ -1791,7 +1851,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>48</v>
@@ -1800,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F52" s="13">
         <v>0</v>
@@ -1811,7 +1871,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>48</v>
@@ -1820,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F53" s="13">
         <v>0</v>
@@ -1831,7 +1891,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>48</v>
@@ -1840,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F54" s="13">
         <v>0</v>
@@ -1851,7 +1911,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>48</v>
@@ -1860,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F55" s="13">
         <v>0</v>
@@ -1870,17 +1930,17 @@
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="B56" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="F56" s="13">
         <v>0</v>
@@ -1890,17 +1950,17 @@
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="4" t="s">
+      <c r="B57" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F57" s="13">
         <v>0</v>
@@ -1910,17 +1970,17 @@
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="B58" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D58" s="3">
         <v>1</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F58" s="13">
         <v>0</v>
@@ -1930,17 +1990,17 @@
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>55</v>
+      <c r="B59" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="F59" s="13">
         <v>0</v>
@@ -1950,17 +2010,17 @@
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>55</v>
+      <c r="B60" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="F60" s="13">
         <v>0</v>
@@ -1971,130 +2031,264 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="11">
+        <v>1</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="11">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F64" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="11">
+        <v>1</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F65" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F68" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="8" t="s">
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F61" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="5"/>

--- a/(UEL) cube_C3D8T_multiphysics/processing_input/depvar.xlsx
+++ b/(UEL) cube_C3D8T_multiphysics/processing_input/depvar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\nguyenb5\Abaqus-UEL-Multiphysics\(UEL) cube_C3D8T_multiphysics\processing_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DCA9E8-2359-4401-BE33-744437FB9220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C75866-2E6F-4E26-BE93-CFBE9809DD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="147">
   <si>
     <t>depvar_index</t>
   </si>
@@ -172,15 +172,6 @@
     <t>CT_mol</t>
   </si>
   <si>
-    <t>C_mol</t>
-  </si>
-  <si>
-    <t>theta_L</t>
-  </si>
-  <si>
-    <t>theta_T_dis</t>
-  </si>
-  <si>
     <t>theta_coverage</t>
   </si>
   <si>
@@ -256,9 +247,6 @@
     <t>lattice hydrogen concentration (mol/m^3)</t>
   </si>
   <si>
-    <t>total hydrogen concentration (mol/m^3)</t>
-  </si>
-  <si>
     <t>lattice site occupancy (-)</t>
   </si>
   <si>
@@ -319,15 +307,6 @@
     <t>total trap hydrogen concentration (mol/m^3)</t>
   </si>
   <si>
-    <t>CT_mol_dis</t>
-  </si>
-  <si>
-    <t>CT_mol_gb</t>
-  </si>
-  <si>
-    <t>CT_mol_carb</t>
-  </si>
-  <si>
     <t>dislocation trap hydrogen concentration (mol/m^3)</t>
   </si>
   <si>
@@ -343,24 +322,12 @@
     <t>temp_grad_Z</t>
   </si>
   <si>
-    <t>CT_mol_void</t>
-  </si>
-  <si>
     <t>vacancy/microvoid trap hydrogen concentration  (mol/m^3)</t>
   </si>
   <si>
     <t>k_HEDE</t>
   </si>
   <si>
-    <t>theta_T_gb</t>
-  </si>
-  <si>
-    <t>theta_T_carb</t>
-  </si>
-  <si>
-    <t>theta_T_void</t>
-  </si>
-  <si>
     <t>flux_hydro_X</t>
   </si>
   <si>
@@ -373,9 +340,6 @@
     <t>mu_potential</t>
   </si>
   <si>
-    <t>NT_mol_dis</t>
-  </si>
-  <si>
     <t>dislocation trap density (mol/m^3)</t>
   </si>
   <si>
@@ -401,6 +365,102 @@
   </si>
   <si>
     <t>hydrogen chemical potential (J/mol)</t>
+  </si>
+  <si>
+    <t>total hydrogen concentration in Taylor expansion prediction (mol/m^3)</t>
+  </si>
+  <si>
+    <t>total hydrogen concentration as exact sum of CL and CT (mol/m^3)</t>
+  </si>
+  <si>
+    <t>CL_wtppm</t>
+  </si>
+  <si>
+    <t>CT_wtppm</t>
+  </si>
+  <si>
+    <t>eqplas_rate</t>
+  </si>
+  <si>
+    <t>equivalent plastic strain rate (1/s)</t>
+  </si>
+  <si>
+    <t>total hydrogen concentration in Taylor expansion prediction (wt.ppm)</t>
+  </si>
+  <si>
+    <t>total hydrogen concentration as exact sum of CL and CT (wt.ppm)</t>
+  </si>
+  <si>
+    <t>lattice hydrogen concentration (wt.ppm)</t>
+  </si>
+  <si>
+    <t>total trap hydrogen concentration (wt.ppm)</t>
+  </si>
+  <si>
+    <t>dislocation trap hydrogen concentration (wt.ppm)</t>
+  </si>
+  <si>
+    <t>grain boundary trap hydrogen concentration (wt.ppm)</t>
+  </si>
+  <si>
+    <t>carbide trap hydrogen concentration (wt.ppm)</t>
+  </si>
+  <si>
+    <t>vacancy/microvoid trap hydrogen concentration  (wt.ppm)</t>
+  </si>
+  <si>
+    <t>CT_dis_mol</t>
+  </si>
+  <si>
+    <t>CT_gb_mol</t>
+  </si>
+  <si>
+    <t>CT_carb_mol</t>
+  </si>
+  <si>
+    <t>CT_void_mol</t>
+  </si>
+  <si>
+    <t>NT_dis_mol</t>
+  </si>
+  <si>
+    <t>C_pred_mol</t>
+  </si>
+  <si>
+    <t>C_exact_mol</t>
+  </si>
+  <si>
+    <t>C_pred_wtppm</t>
+  </si>
+  <si>
+    <t>C_exact_wtppm</t>
+  </si>
+  <si>
+    <t>CT_dis_wtppm</t>
+  </si>
+  <si>
+    <t>CT_gb_wtppm</t>
+  </si>
+  <si>
+    <t>CT_carb_wtppm</t>
+  </si>
+  <si>
+    <t>CT_void_wtppm</t>
+  </si>
+  <si>
+    <t>thetaL</t>
+  </si>
+  <si>
+    <t>thetaT_dis</t>
+  </si>
+  <si>
+    <t>thetaT_gb</t>
+  </si>
+  <si>
+    <t>thetaT_carb</t>
+  </si>
+  <si>
+    <t>thetaT_void</t>
   </si>
 </sst>
 </file>
@@ -812,8 +872,8 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,10 +900,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -860,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F2" s="13">
         <v>0</v>
@@ -880,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" s="13">
         <v>0</v>
@@ -900,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4" s="13">
         <v>0</v>
@@ -920,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F5" s="13">
         <v>0</v>
@@ -940,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F6" s="13">
         <v>0</v>
@@ -960,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" s="13">
         <v>0</v>
@@ -980,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8" s="13">
         <v>0</v>
@@ -1000,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F9" s="13">
         <v>0</v>
@@ -1020,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F10" s="13">
         <v>0</v>
@@ -1040,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="13">
         <v>0</v>
@@ -1060,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12" s="13">
         <v>0</v>
@@ -1080,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F13" s="13">
         <v>0</v>
@@ -1100,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" s="13">
         <v>0</v>
@@ -1120,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" s="13">
         <v>0</v>
@@ -1140,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="13">
         <v>0</v>
@@ -1160,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="13">
         <v>0</v>
@@ -1180,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F18" s="13">
         <v>0</v>
@@ -1200,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F19" s="13">
         <v>0</v>
@@ -1220,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="13">
         <v>0</v>
@@ -1240,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21" s="13">
         <v>0</v>
@@ -1260,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="13">
         <v>0</v>
@@ -1280,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F23" s="13">
         <v>0</v>
@@ -1300,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F24" s="13">
         <v>0</v>
@@ -1320,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F25" s="13">
         <v>0</v>
@@ -1340,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F26" s="13">
         <v>1</v>
@@ -1360,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F27" s="13">
         <v>0</v>
@@ -1380,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F28" s="13">
         <v>0</v>
@@ -1400,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F29" s="13">
         <v>0</v>
@@ -1410,8 +1470,8 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>33</v>
+      <c r="B30" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>5</v>
@@ -1420,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F30" s="13">
         <v>0</v>
@@ -1431,7 +1491,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>5</v>
@@ -1440,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F31" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1451,7 +1511,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>5</v>
@@ -1460,10 +1520,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F32" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1471,7 +1531,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>5</v>
@@ -1480,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F33" s="13">
         <v>0</v>
@@ -1491,7 +1551,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>5</v>
@@ -1500,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F34" s="13">
         <v>0</v>
@@ -1511,7 +1571,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>5</v>
@@ -1520,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F35" s="13">
         <v>0</v>
@@ -1530,17 +1590,17 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>84</v>
+      <c r="B36" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F36" s="13">
         <v>0</v>
@@ -1551,7 +1611,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>5</v>
@@ -1560,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F37" s="13">
         <v>0</v>
@@ -1571,7 +1631,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>5</v>
@@ -1580,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F38" s="13">
         <v>0</v>
@@ -1591,7 +1651,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>5</v>
@@ -1600,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F39" s="13">
         <v>0</v>
@@ -1610,17 +1670,17 @@
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>39</v>
+      <c r="B40" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="11">
         <v>1</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F40" s="13">
         <v>0</v>
@@ -1631,7 +1691,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>5</v>
@@ -1640,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F41" s="13">
         <v>0</v>
@@ -1651,16 +1711,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F42" s="13">
         <v>0</v>
@@ -1671,7 +1731,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>48</v>
@@ -1680,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="F43" s="13">
         <v>0</v>
@@ -1691,7 +1751,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>48</v>
@@ -1700,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F44" s="13">
         <v>0</v>
@@ -1710,8 +1770,8 @@
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>117</v>
+      <c r="B45" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>48</v>
@@ -1720,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F45" s="13">
         <v>0</v>
@@ -1731,7 +1791,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>48</v>
@@ -1740,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F46" s="13">
         <v>0</v>
@@ -1750,8 +1810,8 @@
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>100</v>
+      <c r="B47" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>48</v>
@@ -1760,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F47" s="13">
         <v>0</v>
@@ -1771,7 +1831,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>48</v>
@@ -1780,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F48" s="13">
         <v>0</v>
@@ -1791,7 +1851,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>48</v>
@@ -1800,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F49" s="13">
         <v>0</v>
@@ -1811,7 +1871,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>48</v>
@@ -1820,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F50" s="13">
         <v>0</v>
@@ -1831,7 +1891,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>48</v>
@@ -1840,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F51" s="13">
         <v>0</v>
@@ -1851,16 +1911,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="3">
-        <v>1</v>
+      <c r="D52" s="11">
+        <v>0</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F52" s="13">
         <v>0</v>
@@ -1871,16 +1931,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="3">
-        <v>1</v>
+      <c r="D53" s="11">
+        <v>0</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F53" s="13">
         <v>0</v>
@@ -1891,16 +1951,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="3">
-        <v>1</v>
+      <c r="D54" s="11">
+        <v>0</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F54" s="13">
         <v>0</v>
@@ -1911,16 +1971,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="3">
-        <v>1</v>
+      <c r="D55" s="11">
+        <v>0</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F55" s="13">
         <v>0</v>
@@ -1930,17 +1990,17 @@
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1</v>
+      <c r="B56" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F56" s="13">
         <v>0</v>
@@ -1950,17 +2010,17 @@
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1</v>
+      <c r="B57" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="11">
+        <v>0</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F57" s="13">
         <v>0</v>
@@ -1970,17 +2030,17 @@
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1</v>
+      <c r="B58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="11">
+        <v>0</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F58" s="13">
         <v>0</v>
@@ -1990,17 +2050,17 @@
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1</v>
+      <c r="B59" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="11">
+        <v>0</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F59" s="13">
         <v>0</v>
@@ -2010,17 +2070,17 @@
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" s="13" t="s">
+      <c r="B60" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F60" s="13">
         <v>0</v>
@@ -2031,16 +2091,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F61" s="13">
         <v>0</v>
@@ -2051,36 +2111,36 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="F62" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>92</v>
+      <c r="B63" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" s="11">
+        <v>48</v>
+      </c>
+      <c r="D63" s="3">
         <v>1</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F63" s="13">
         <v>0</v>
@@ -2090,17 +2150,17 @@
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>93</v>
+      <c r="B64" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" s="11">
+        <v>48</v>
+      </c>
+      <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F64" s="13">
         <v>0</v>
@@ -2110,17 +2170,17 @@
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>106</v>
+      <c r="B65" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" s="11">
+        <v>48</v>
+      </c>
+      <c r="D65" s="3">
         <v>1</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F65" s="13">
         <v>0</v>
@@ -2130,17 +2190,17 @@
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>42</v>
+      <c r="B66" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="F66" s="13">
         <v>0</v>
@@ -2150,17 +2210,17 @@
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>42</v>
+      <c r="B67" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="F67" s="13">
         <v>0</v>
@@ -2170,17 +2230,17 @@
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>42</v>
+      <c r="B68" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="F68" s="13">
         <v>0</v>
@@ -2190,17 +2250,17 @@
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>55</v>
+      <c r="B69" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F69" s="13">
         <v>0</v>
@@ -2210,17 +2270,17 @@
       <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>55</v>
+      <c r="B70" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="F70" s="13">
         <v>0</v>
@@ -2231,154 +2291,300 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F71" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" s="11">
+        <v>1</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="6"/>
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="11">
+        <v>1</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="11">
+        <v>1</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F75" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="6"/>
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F76" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="6"/>
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="6"/>
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="6"/>
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F80" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
     </row>
-    <row r="83" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
     </row>
-    <row r="85" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
     </row>
-    <row r="86" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="5"/>
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="5"/>
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="5"/>
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="5"/>
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="5"/>
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="5"/>
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="5"/>
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="5"/>
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="5"/>

--- a/(UEL) cube_C3D8T_multiphysics/processing_input/depvar.xlsx
+++ b/(UEL) cube_C3D8T_multiphysics/processing_input/depvar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\nguyenb5\Abaqus-UEL-Multiphysics\(UEL) cube_C3D8T_multiphysics\processing_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C75866-2E6F-4E26-BE93-CFBE9809DD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2289829C-D804-4605-83D6-B5E859F48276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -872,8 +872,8 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
